--- a/case 4/access specifiers.xlsx
+++ b/case 4/access specifiers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -70,9 +70,6 @@
     <t>ID           Name        Type</t>
   </si>
   <si>
-    <t>employees=5</t>
-  </si>
-  <si>
     <t>5             roja                s</t>
   </si>
   <si>
@@ -80,6 +77,24 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>employees=2</t>
+  </si>
+  <si>
+    <t>to get help</t>
+  </si>
+  <si>
+    <t>argv[0] -h</t>
+  </si>
+  <si>
+    <t>enter inputs</t>
+  </si>
+  <si>
+    <t>with 0 as input or negative input</t>
+  </si>
+  <si>
+    <t>employees=0 or employee=-10</t>
   </si>
 </sst>
 </file>
@@ -429,17 +444,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,13 +480,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -485,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -543,6 +558,46 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/case 4/access specifiers.xlsx
+++ b/case 4/access specifiers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -95,13 +95,31 @@
   </si>
   <si>
     <t>employees=0 or employee=-10</t>
+  </si>
+  <si>
+    <t>protected and private inheritance</t>
+  </si>
+  <si>
+    <t>name=prasuna</t>
+  </si>
+  <si>
+    <t>mail=@gmail.com</t>
+  </si>
+  <si>
+    <t>protected inheritace</t>
+  </si>
+  <si>
+    <t>private inheritance</t>
+  </si>
+  <si>
+    <t>name=a125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +133,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,14 +160,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +629,84 @@
         <v>20</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="D22" r:id="rId3"/>
+    <hyperlink ref="D25" r:id="rId4"/>
+    <hyperlink ref="E22" r:id="rId5"/>
+    <hyperlink ref="E25" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/case 4/access specifiers.xlsx
+++ b/case 4/access specifiers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>name=a125</t>
+  </si>
+  <si>
+    <t>age=22</t>
+  </si>
+  <si>
+    <t>age=33</t>
+  </si>
+  <si>
+    <t>help command</t>
   </si>
 </sst>
 </file>
@@ -473,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +640,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -647,8 +656,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>29</v>
+      <c r="C21" t="s">
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -658,54 +667,96 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
-    <hyperlink ref="C23" r:id="rId2"/>
-    <hyperlink ref="D22" r:id="rId3"/>
-    <hyperlink ref="D25" r:id="rId4"/>
-    <hyperlink ref="E22" r:id="rId5"/>
-    <hyperlink ref="E25" r:id="rId6"/>
+    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId2"/>
+    <hyperlink ref="E23" r:id="rId3"/>
+    <hyperlink ref="E26" r:id="rId4"/>
+    <hyperlink ref="D23" r:id="rId5"/>
+    <hyperlink ref="D26" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
